--- a/project_UOBR/dvizhenie/tests/test_services/test_load_data_from_excel/Движение_БУ.xlsx
+++ b/project_UOBR/dvizhenie/tests/test_services/test_load_data_from_excel/Движение_БУ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1AE13F-F608-46C5-AC2F-E7DE9FF575B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D951866A-EA15-4F58-9E31-303ED10A0734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="443">
   <si>
     <t>№</t>
   </si>
@@ -1410,12 +1410,6 @@
   </si>
   <si>
     <t>3142.2</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>320</t>
   </si>
   <si>
     <t>нет</t>
@@ -3364,6 +3358,9 @@
     <xf numFmtId="17" fontId="11" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3456,9 +3453,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3800,8 +3794,8 @@
   <dimension ref="A1:AF276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R182" sqref="R182"/>
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N182" sqref="N182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3839,32 +3833,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="482" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="482"/>
-      <c r="G1" s="483"/>
+      <c r="B1" s="483"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="483"/>
+      <c r="F1" s="483"/>
+      <c r="G1" s="484"/>
       <c r="H1" s="103"/>
-      <c r="I1" s="478" t="s">
+      <c r="I1" s="479" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
-      <c r="N1" s="479"/>
-      <c r="O1" s="479"/>
-      <c r="P1" s="479"/>
-      <c r="Q1" s="479"/>
-      <c r="R1" s="479"/>
-      <c r="S1" s="479"/>
-      <c r="T1" s="479"/>
-      <c r="U1" s="479"/>
-      <c r="V1" s="480"/>
+      <c r="J1" s="480"/>
+      <c r="K1" s="480"/>
+      <c r="L1" s="480"/>
+      <c r="M1" s="480"/>
+      <c r="N1" s="480"/>
+      <c r="O1" s="480"/>
+      <c r="P1" s="480"/>
+      <c r="Q1" s="480"/>
+      <c r="R1" s="480"/>
+      <c r="S1" s="480"/>
+      <c r="T1" s="480"/>
+      <c r="U1" s="480"/>
+      <c r="V1" s="481"/>
       <c r="W1" s="104"/>
       <c r="X1" s="138"/>
       <c r="Y1" s="138"/>
@@ -14315,22 +14309,24 @@
     <row r="182" spans="1:30" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="47"/>
       <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
+      <c r="C182" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="D182" s="11">
         <v>89</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F182" s="485">
+      <c r="F182" s="454">
         <v>45340</v>
       </c>
       <c r="G182" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H182" s="11"/>
-      <c r="I182" s="20" t="s">
-        <v>442</v>
+      <c r="I182" s="7">
+        <v>143</v>
       </c>
       <c r="J182" s="8" t="s">
         <v>7</v>
@@ -14341,14 +14337,14 @@
       <c r="L182" s="19">
         <v>45555</v>
       </c>
-      <c r="N182" s="21" t="s">
-        <v>443</v>
+      <c r="N182" s="93">
+        <v>320</v>
       </c>
       <c r="O182" s="21" t="s">
         <v>428</v>
       </c>
       <c r="Q182" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R182" s="93">
         <v>8</v>
@@ -14367,22 +14363,22 @@
     </row>
     <row r="183" spans="1:30" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H183" s="27"/>
-      <c r="I183" s="469" t="s">
+      <c r="I183" s="470" t="s">
         <v>90</v>
       </c>
-      <c r="J183" s="470"/>
-      <c r="K183" s="470"/>
-      <c r="L183" s="470"/>
-      <c r="M183" s="470"/>
-      <c r="N183" s="470"/>
-      <c r="O183" s="470"/>
-      <c r="P183" s="470"/>
-      <c r="Q183" s="470"/>
-      <c r="R183" s="470"/>
-      <c r="S183" s="470"/>
-      <c r="T183" s="470"/>
-      <c r="U183" s="470"/>
-      <c r="V183" s="471"/>
+      <c r="J183" s="471"/>
+      <c r="K183" s="471"/>
+      <c r="L183" s="471"/>
+      <c r="M183" s="471"/>
+      <c r="N183" s="471"/>
+      <c r="O183" s="471"/>
+      <c r="P183" s="471"/>
+      <c r="Q183" s="471"/>
+      <c r="R183" s="471"/>
+      <c r="S183" s="471"/>
+      <c r="T183" s="471"/>
+      <c r="U183" s="471"/>
+      <c r="V183" s="472"/>
       <c r="W183" s="26"/>
       <c r="X183" s="11"/>
       <c r="Y183" s="11"/>
@@ -15112,31 +15108,31 @@
       <c r="AD200" s="11"/>
     </row>
     <row r="201" spans="1:30" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="475" t="s">
+      <c r="B201" s="476" t="s">
         <v>260</v>
       </c>
-      <c r="C201" s="476"/>
-      <c r="D201" s="476"/>
-      <c r="E201" s="476"/>
-      <c r="F201" s="476"/>
-      <c r="G201" s="477"/>
+      <c r="C201" s="477"/>
+      <c r="D201" s="477"/>
+      <c r="E201" s="477"/>
+      <c r="F201" s="477"/>
+      <c r="G201" s="478"/>
       <c r="H201" s="7"/>
-      <c r="I201" s="454" t="s">
+      <c r="I201" s="455" t="s">
         <v>94</v>
       </c>
-      <c r="J201" s="455"/>
-      <c r="K201" s="455"/>
-      <c r="L201" s="455"/>
-      <c r="M201" s="455"/>
-      <c r="N201" s="455"/>
-      <c r="O201" s="455"/>
-      <c r="P201" s="455"/>
-      <c r="Q201" s="455"/>
-      <c r="R201" s="455"/>
-      <c r="S201" s="455"/>
-      <c r="T201" s="455"/>
-      <c r="U201" s="455"/>
-      <c r="V201" s="456"/>
+      <c r="J201" s="456"/>
+      <c r="K201" s="456"/>
+      <c r="L201" s="456"/>
+      <c r="M201" s="456"/>
+      <c r="N201" s="456"/>
+      <c r="O201" s="456"/>
+      <c r="P201" s="456"/>
+      <c r="Q201" s="456"/>
+      <c r="R201" s="456"/>
+      <c r="S201" s="456"/>
+      <c r="T201" s="456"/>
+      <c r="U201" s="456"/>
+      <c r="V201" s="457"/>
       <c r="W201" s="26"/>
       <c r="X201" s="11"/>
       <c r="Y201" s="11"/>
@@ -15147,14 +15143,14 @@
       <c r="AD201" s="11"/>
     </row>
     <row r="202" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="472" t="s">
+      <c r="B202" s="473" t="s">
         <v>262</v>
       </c>
-      <c r="C202" s="473"/>
-      <c r="D202" s="473"/>
-      <c r="E202" s="473"/>
-      <c r="F202" s="473"/>
-      <c r="G202" s="474"/>
+      <c r="C202" s="474"/>
+      <c r="D202" s="474"/>
+      <c r="E202" s="474"/>
+      <c r="F202" s="474"/>
+      <c r="G202" s="475"/>
       <c r="H202" s="7"/>
       <c r="I202" s="113">
         <v>270</v>
@@ -15202,14 +15198,14 @@
       <c r="AD202" s="11"/>
     </row>
     <row r="203" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="466" t="s">
+      <c r="B203" s="467" t="s">
         <v>265</v>
       </c>
-      <c r="C203" s="467"/>
-      <c r="D203" s="467"/>
-      <c r="E203" s="467"/>
-      <c r="F203" s="467"/>
-      <c r="G203" s="468"/>
+      <c r="C203" s="468"/>
+      <c r="D203" s="468"/>
+      <c r="E203" s="468"/>
+      <c r="F203" s="468"/>
+      <c r="G203" s="469"/>
       <c r="H203" s="7"/>
       <c r="I203" s="35">
         <v>908</v>
@@ -15253,14 +15249,14 @@
       <c r="AD203" s="11"/>
     </row>
     <row r="204" spans="1:30" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="460" t="s">
+      <c r="B204" s="461" t="s">
         <v>263</v>
       </c>
-      <c r="C204" s="461"/>
-      <c r="D204" s="461"/>
-      <c r="E204" s="461"/>
-      <c r="F204" s="461"/>
-      <c r="G204" s="462"/>
+      <c r="C204" s="462"/>
+      <c r="D204" s="462"/>
+      <c r="E204" s="462"/>
+      <c r="F204" s="462"/>
+      <c r="G204" s="463"/>
       <c r="H204" s="30"/>
       <c r="I204" s="34">
         <v>20</v>
@@ -15299,14 +15295,14 @@
       <c r="W204" s="26"/>
     </row>
     <row r="205" spans="1:30" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="457" t="s">
+      <c r="B205" s="458" t="s">
         <v>261</v>
       </c>
-      <c r="C205" s="458"/>
-      <c r="D205" s="458"/>
-      <c r="E205" s="458"/>
-      <c r="F205" s="458"/>
-      <c r="G205" s="459"/>
+      <c r="C205" s="459"/>
+      <c r="D205" s="459"/>
+      <c r="E205" s="459"/>
+      <c r="F205" s="459"/>
+      <c r="G205" s="460"/>
       <c r="H205" s="30"/>
       <c r="I205" s="34">
         <v>250</v>
@@ -15350,14 +15346,14 @@
     </row>
     <row r="206" spans="1:30" s="24" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
-      <c r="B206" s="463" t="s">
+      <c r="B206" s="464" t="s">
         <v>264</v>
       </c>
-      <c r="C206" s="464"/>
-      <c r="D206" s="464"/>
-      <c r="E206" s="464"/>
-      <c r="F206" s="464"/>
-      <c r="G206" s="465"/>
+      <c r="C206" s="465"/>
+      <c r="D206" s="465"/>
+      <c r="E206" s="465"/>
+      <c r="F206" s="465"/>
+      <c r="G206" s="466"/>
       <c r="H206" s="30"/>
       <c r="I206" s="34">
         <v>238</v>
@@ -15494,22 +15490,22 @@
       <c r="R209" s="21"/>
     </row>
     <row r="210" spans="9:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I210" s="454" t="s">
+      <c r="I210" s="455" t="s">
         <v>292</v>
       </c>
-      <c r="J210" s="455"/>
-      <c r="K210" s="455"/>
-      <c r="L210" s="455"/>
-      <c r="M210" s="455"/>
-      <c r="N210" s="455"/>
-      <c r="O210" s="455"/>
-      <c r="P210" s="455"/>
-      <c r="Q210" s="455"/>
-      <c r="R210" s="455"/>
-      <c r="S210" s="455"/>
-      <c r="T210" s="455"/>
-      <c r="U210" s="455"/>
-      <c r="V210" s="456"/>
+      <c r="J210" s="456"/>
+      <c r="K210" s="456"/>
+      <c r="L210" s="456"/>
+      <c r="M210" s="456"/>
+      <c r="N210" s="456"/>
+      <c r="O210" s="456"/>
+      <c r="P210" s="456"/>
+      <c r="Q210" s="456"/>
+      <c r="R210" s="456"/>
+      <c r="S210" s="456"/>
+      <c r="T210" s="456"/>
+      <c r="U210" s="456"/>
+      <c r="V210" s="457"/>
     </row>
     <row r="211" spans="9:22" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="I211" s="113">
@@ -18261,10 +18257,10 @@
       <c r="B2" s="137" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="484" t="s">
+      <c r="D2" s="485" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="484"/>
+      <c r="E2" s="485"/>
       <c r="G2" s="137" t="s">
         <v>69</v>
       </c>
